--- a/RR_Results/dm_results_fullset_iteratedpredictions_23-Oct-2024.xlsx
+++ b/RR_Results/dm_results_fullset_iteratedpredictions_23-Oct-2024.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2924" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3850" uniqueCount="359">
   <si>
     <t>Row</t>
   </si>
@@ -1551,43 +1551,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>1.0160533184540759</v>
+        <v>1.1650373829527758</v>
       </c>
       <c r="C9" s="0">
-        <v>1.4311350057622578</v>
+        <v>1.2012823645817996</v>
       </c>
       <c r="D9" s="0">
-        <v>1.3935870880244243</v>
+        <v>1.1164634585506048</v>
       </c>
       <c r="E9" s="0">
-        <v>1.5614258257219849</v>
+        <v>1.1525233457506716</v>
       </c>
       <c r="F9" s="0">
-        <v>1.5606709192982033</v>
+        <v>1.2021089272544707</v>
       </c>
       <c r="G9" s="0">
-        <v>1.2505841002686331</v>
+        <v>1.0540896021541948</v>
       </c>
       <c r="H9" s="0">
-        <v>1.2368722726020076</v>
+        <v>1.051627728770316</v>
       </c>
       <c r="I9" s="0">
-        <v>1.4015700053821984</v>
+        <v>1.0312993246277515</v>
       </c>
       <c r="J9" s="0">
-        <v>1.4347415131697037</v>
+        <v>1.0854040499557962</v>
       </c>
       <c r="K9" s="0">
-        <v>1.4585175149796841</v>
+        <v>1.0789724273618302</v>
       </c>
       <c r="L9" s="0">
-        <v>1.3782201412022608</v>
+        <v>1.0350217331232494</v>
       </c>
       <c r="M9" s="0">
-        <v>1.372244988776923</v>
+        <v>1.3678899565309171</v>
       </c>
       <c r="N9" s="0">
-        <v>1.50869947474969</v>
+        <v>1.8459886256219926</v>
       </c>
     </row>
     <row r="10">
@@ -2459,43 +2459,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.23718289161863926</v>
+        <v>0.77328873267030596</v>
       </c>
       <c r="C9" s="0">
-        <v>0.28889776948488621</v>
+        <v>0.18871568550298401</v>
       </c>
       <c r="D9" s="0">
-        <v>0.24275638379207964</v>
+        <v>0.18191449109714553</v>
       </c>
       <c r="E9" s="0">
-        <v>0.53901808385616068</v>
+        <v>0.48896599821589237</v>
       </c>
       <c r="F9" s="0">
-        <v>0.35917378000804112</v>
+        <v>0.30345321956781857</v>
       </c>
       <c r="G9" s="0">
-        <v>0.26755047341064597</v>
+        <v>0.12076081460440291</v>
       </c>
       <c r="H9" s="0">
-        <v>0.22808626669241128</v>
+        <v>0.14313034019231241</v>
       </c>
       <c r="I9" s="0">
-        <v>0.05732887600526812</v>
+        <v>0.027281486610930956</v>
       </c>
       <c r="J9" s="0">
-        <v>0.04519606680043152</v>
+        <v>0.018767344622899005</v>
       </c>
       <c r="K9" s="0">
-        <v>0.14180536787951226</v>
+        <v>0.09295910796071595</v>
       </c>
       <c r="L9" s="0">
-        <v>0.10321015674385337</v>
+        <v>0.04262631758025457</v>
       </c>
       <c r="M9" s="0">
-        <v>0.074840771961078134</v>
+        <v>0.0094763911359663673</v>
       </c>
       <c r="N9" s="0">
-        <v>0.093909740725716118</v>
+        <v>0.0089850230191473295</v>
       </c>
     </row>
     <row r="10">
@@ -3367,43 +3367,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>1.1961156726671067</v>
+        <v>0.28961006117038723</v>
       </c>
       <c r="C9" s="0">
-        <v>1.0717054544448261</v>
+        <v>1.3322042812998356</v>
       </c>
       <c r="D9" s="0">
-        <v>1.181825268222882</v>
+        <v>1.3533428146547601</v>
       </c>
       <c r="E9" s="0">
-        <v>0.61847003786771071</v>
+        <v>0.69700303067423364</v>
       </c>
       <c r="F9" s="0">
-        <v>0.92528818319059558</v>
+        <v>1.0395483504281964</v>
       </c>
       <c r="G9" s="0">
-        <v>1.1209721146005336</v>
+        <v>1.5779478940521554</v>
       </c>
       <c r="H9" s="0">
-        <v>1.2199739791230355</v>
+        <v>1.4871566217414847</v>
       </c>
       <c r="I9" s="0">
-        <v>1.9447535569967114</v>
+        <v>2.272820222354702</v>
       </c>
       <c r="J9" s="0">
-        <v>2.0532311362528044</v>
+        <v>2.4276173818757343</v>
       </c>
       <c r="K9" s="0">
-        <v>1.4922071532864161</v>
+        <v>1.7120693165405636</v>
       </c>
       <c r="L9" s="0">
-        <v>1.6592168188615437</v>
+        <v>2.0794055420979505</v>
       </c>
       <c r="M9" s="0">
-        <v>1.8186388773735147</v>
+        <v>2.696289054531456</v>
       </c>
       <c r="N9" s="0">
-        <v>1.7069714538575596</v>
+        <v>2.7165614658637178</v>
       </c>
     </row>
     <row r="10">
@@ -4275,43 +4275,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.80122977988804711</v>
+        <v>0.97240691925890266</v>
       </c>
       <c r="C9" s="0">
-        <v>0.76270274760190659</v>
+        <v>0.78028935605647554</v>
       </c>
       <c r="D9" s="0">
-        <v>0.76032744648394412</v>
+        <v>0.78048136485956965</v>
       </c>
       <c r="E9" s="0">
-        <v>0.80876026618841845</v>
+        <v>0.81729121763063017</v>
       </c>
       <c r="F9" s="0">
-        <v>0.77969125193085043</v>
+        <v>0.78463625951154492</v>
       </c>
       <c r="G9" s="0">
-        <v>0.75425827366086706</v>
+        <v>0.73922872147261087</v>
       </c>
       <c r="H9" s="0">
-        <v>0.75020873312875402</v>
+        <v>0.74489815864694697</v>
       </c>
       <c r="I9" s="0">
-        <v>0.70101418269348936</v>
+        <v>0.69458013848506484</v>
       </c>
       <c r="J9" s="0">
-        <v>0.7129354491712242</v>
+        <v>0.71317193743591822</v>
       </c>
       <c r="K9" s="0">
-        <v>0.75007563729047821</v>
+        <v>0.75796807864585258</v>
       </c>
       <c r="L9" s="0">
-        <v>0.72192202802453509</v>
+        <v>0.72468540229859724</v>
       </c>
       <c r="M9" s="0">
-        <v>0.70800183723674914</v>
+        <v>0.70967536325568514</v>
       </c>
       <c r="N9" s="0">
-        <v>0.70342313548248792</v>
+        <v>0.70580398918516818</v>
       </c>
     </row>
     <row r="10">
@@ -5183,43 +5183,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.244870298502601</v>
+        <v>0.18851207607300513</v>
       </c>
       <c r="C9" s="0">
-        <v>0.29411940623067023</v>
+        <v>0.3393826467071277</v>
       </c>
       <c r="D9" s="0">
-        <v>0.30589925062476253</v>
+        <v>0.38830705615081618</v>
       </c>
       <c r="E9" s="0">
-        <v>0.26088591902617742</v>
+        <v>0.25021162526588747</v>
       </c>
       <c r="F9" s="0">
-        <v>0.26822585882742123</v>
+        <v>0.25128868308270913</v>
       </c>
       <c r="G9" s="0">
-        <v>0.31827278945717907</v>
+        <v>0.51542733291413534</v>
       </c>
       <c r="H9" s="0">
-        <v>0.33554429429886112</v>
+        <v>0.58407400858691072</v>
       </c>
       <c r="I9" s="0">
-        <v>0.33845834310796208</v>
+        <v>0.56613868919619814</v>
       </c>
       <c r="J9" s="0">
-        <v>0.36030726422902126</v>
+        <v>0.59185580798511261</v>
       </c>
       <c r="K9" s="0">
-        <v>0.34849879351020763</v>
+        <v>0.59231532668470721</v>
       </c>
       <c r="L9" s="0">
-        <v>0.39003555881876817</v>
+        <v>0.64119359628804207</v>
       </c>
       <c r="M9" s="0">
-        <v>0.39639222979453415</v>
+        <v>0.35036248376294121</v>
       </c>
       <c r="N9" s="0">
-        <v>0.2421835290454063</v>
+        <v>0.19758274897122863</v>
       </c>
     </row>
     <row r="10">
@@ -6091,43 +6091,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>-1.1736856022185158</v>
+        <v>-1.3291663307557084</v>
       </c>
       <c r="C9" s="0">
-        <v>-1.0578079126229327</v>
+        <v>-0.96257722262949086</v>
       </c>
       <c r="D9" s="0">
-        <v>-1.0321227408827902</v>
+        <v>-0.86860833972499163</v>
       </c>
       <c r="E9" s="0">
-        <v>-1.1343326399473634</v>
+        <v>-1.1603621601755327</v>
       </c>
       <c r="F9" s="0">
-        <v>-1.1168689213029788</v>
+        <v>-1.1577002571020709</v>
       </c>
       <c r="G9" s="0">
-        <v>-1.0058559425507381</v>
+        <v>-0.65404319498914332</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.97031115336414298</v>
+        <v>-0.55023436635813217</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.9644343312056527</v>
+        <v>-0.57673927133287706</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.92138978248807668</v>
+        <v>-0.53885590312853193</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.94443599287747926</v>
+        <v>-0.538186214703537</v>
       </c>
       <c r="L9" s="0">
-        <v>-0.8654296711823537</v>
+        <v>-0.46825430852980454</v>
       </c>
       <c r="M9" s="0">
-        <v>-0.85381461793317748</v>
+        <v>-0.94076544013199115</v>
       </c>
       <c r="N9" s="0">
-        <v>-1.1804664822143343</v>
+        <v>-1.3020008202266524</v>
       </c>
     </row>
     <row r="10">
@@ -6999,43 +6999,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.95841821157287554</v>
+        <v>1.2585718399222903</v>
       </c>
       <c r="C9" s="0">
-        <v>1.1339552736296437</v>
+        <v>1.0811278653298477</v>
       </c>
       <c r="D9" s="0">
-        <v>1.114046032970911</v>
+        <v>1.0466761356171139</v>
       </c>
       <c r="E9" s="0">
-        <v>1.2427252082890619</v>
+        <v>1.1193717269043877</v>
       </c>
       <c r="F9" s="0">
-        <v>1.2027490693326719</v>
+        <v>1.1350043980384876</v>
       </c>
       <c r="G9" s="0">
-        <v>0.97085160929766734</v>
+        <v>0.91477838948805668</v>
       </c>
       <c r="H9" s="0">
-        <v>0.97879508884334054</v>
+        <v>0.93379687498392938</v>
       </c>
       <c r="I9" s="0">
-        <v>1.0623204957961436</v>
+        <v>0.93960367824466806</v>
       </c>
       <c r="J9" s="0">
-        <v>1.0452732952662391</v>
+        <v>0.94226362800052577</v>
       </c>
       <c r="K9" s="0">
-        <v>1.0758531656390469</v>
+        <v>0.94796306792643537</v>
       </c>
       <c r="L9" s="0">
-        <v>1.0013873241988502</v>
+        <v>0.94596862698585082</v>
       </c>
       <c r="M9" s="0">
-        <v>0.99847952423076036</v>
+        <v>1.1381689727252176</v>
       </c>
       <c r="N9" s="0">
-        <v>0.98499329211258113</v>
+        <v>1.0936702099367555</v>
       </c>
     </row>
     <row r="10">
@@ -7907,43 +7907,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.91873242209606976</v>
+        <v>0.48784306021659918</v>
       </c>
       <c r="C9" s="0">
-        <v>0.53525349702780822</v>
+        <v>0.74373778601727292</v>
       </c>
       <c r="D9" s="0">
-        <v>0.30775166104197427</v>
+        <v>0.40326732006888144</v>
       </c>
       <c r="E9" s="0">
-        <v>0.93471144670615514</v>
+        <v>0.75421302494740183</v>
       </c>
       <c r="F9" s="0">
-        <v>0.30670991299516115</v>
+        <v>0.23412673800145245</v>
       </c>
       <c r="G9" s="0">
-        <v>0.24152351755805779</v>
+        <v>0.5320087558218819</v>
       </c>
       <c r="H9" s="0">
-        <v>0.24885696892842957</v>
+        <v>0.4852927636001928</v>
       </c>
       <c r="I9" s="0">
-        <v>0.61415915882241445</v>
+        <v>0.84348438749723864</v>
       </c>
       <c r="J9" s="0">
-        <v>0.71591869887295401</v>
+        <v>0.89579854674529646</v>
       </c>
       <c r="K9" s="0">
-        <v>0.36487787036483155</v>
+        <v>0.7239951883296829</v>
       </c>
       <c r="L9" s="0">
-        <v>0.30576431650837033</v>
+        <v>0.93466517070721844</v>
       </c>
       <c r="M9" s="0">
-        <v>0.70722711849362474</v>
+        <v>0.82220360312013685</v>
       </c>
       <c r="N9" s="0">
-        <v>0.52310229847503908</v>
+        <v>0.17771999560877527</v>
       </c>
     </row>
     <row r="10">
@@ -8789,43 +8789,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.10253717596273783</v>
+        <v>-0.6988138449457939</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.62423856262364774</v>
+        <v>-0.32868748344625875</v>
       </c>
       <c r="D9" s="0">
-        <v>-1.0302549748717826</v>
+        <v>-0.84281503641539568</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.082323847908278222</v>
+        <v>0.31477992848632458</v>
       </c>
       <c r="F9" s="0">
-        <v>1.0324990940687011</v>
+        <v>1.2040555309205816</v>
       </c>
       <c r="G9" s="0">
-        <v>-1.184965668496275</v>
+        <v>-0.62922743575015594</v>
       </c>
       <c r="H9" s="0">
-        <v>-1.1664530879336383</v>
+        <v>-0.70293499832166606</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.50725970604059645</v>
+        <v>0.19844690056156258</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.36594639915852867</v>
+        <v>0.13162532866748697</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.9142690904316717</v>
+        <v>-0.35507832920553861</v>
       </c>
       <c r="L9" s="0">
-        <v>-1.0345405906956808</v>
+        <v>0.082382333107717587</v>
       </c>
       <c r="M9" s="0">
-        <v>-0.37769151491845471</v>
+        <v>0.22587217281093119</v>
       </c>
       <c r="N9" s="0">
-        <v>0.64300372160873687</v>
+        <v>1.3666821008597707</v>
       </c>
     </row>
     <row r="10">
@@ -9671,43 +9671,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.97106953299115517</v>
+        <v>1.045875640979455</v>
       </c>
       <c r="C9" s="0">
-        <v>1.0689740674575812</v>
+        <v>1.0401379336779832</v>
       </c>
       <c r="D9" s="0">
-        <v>1.0961191594738571</v>
+        <v>1.0687967284473656</v>
       </c>
       <c r="E9" s="0">
-        <v>0.99875452464091108</v>
+        <v>0.96988307113844707</v>
       </c>
       <c r="F9" s="0">
-        <v>0.8555280610080962</v>
+        <v>0.82700886868151335</v>
       </c>
       <c r="G9" s="0">
-        <v>1.146070121337823</v>
+        <v>1.060484848056513</v>
       </c>
       <c r="H9" s="0">
-        <v>1.1411931280387047</v>
+        <v>1.0697184446939678</v>
       </c>
       <c r="I9" s="0">
-        <v>1.0487537736893149</v>
+        <v>0.97967132779510857</v>
       </c>
       <c r="J9" s="0">
-        <v>1.0364048841174476</v>
+        <v>0.98308450102009648</v>
       </c>
       <c r="K9" s="0">
-        <v>1.0875110952878542</v>
+        <v>1.0429518826526141</v>
       </c>
       <c r="L9" s="0">
-        <v>1.0847926439609643</v>
+        <v>0.99762250631222282</v>
       </c>
       <c r="M9" s="0">
-        <v>1.0426481741294349</v>
+        <v>0.97000957821424005</v>
       </c>
       <c r="N9" s="0">
-        <v>0.95297901081947989</v>
+        <v>0.83885614877290049</v>
       </c>
     </row>
     <row r="10">
@@ -10899,76 +10899,76 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>1.1364780142233206</v>
+        <v>0.9638905083499949</v>
       </c>
       <c r="C10" s="0">
-        <v>0.81822055979628627</v>
+        <v>0.87558270894382251</v>
       </c>
       <c r="D10" s="0">
-        <v>1.3048564491179213</v>
+        <v>1.1607696864242649</v>
       </c>
       <c r="E10" s="0">
-        <v>1.2312538306463643</v>
+        <v>1.1011460808655786</v>
       </c>
       <c r="F10" s="0">
-        <v>0.93251038267386632</v>
+        <v>0.88937345564258585</v>
       </c>
       <c r="G10" s="0">
-        <v>0.64066407930829761</v>
+        <v>0.68769968859240227</v>
       </c>
       <c r="H10" s="0">
-        <v>1.1683049960734584</v>
+        <v>1.1723202109992601</v>
       </c>
       <c r="I10" s="0">
-        <v>0.98867155813000562</v>
+        <v>0.99902414282151764</v>
       </c>
       <c r="J10" s="0">
-        <v>0.72093943152845208</v>
+        <v>3.8130112362191158</v>
       </c>
       <c r="K10" s="0">
-        <v>0.47165137342927788</v>
+        <v>0.00017476589649482178</v>
       </c>
       <c r="L10" s="0">
-        <v>16.3533191172017</v>
+        <v>15.505869786683201</v>
       </c>
       <c r="M10" s="0">
-        <v>4.5454715504810902e-52</v>
+        <v>1.3306159815295637e-47</v>
       </c>
       <c r="N10" s="0">
-        <v>-2.9907068725239605</v>
+        <v>-2.4707881535803358</v>
       </c>
       <c r="O10" s="0">
-        <v>0.0030514609001254288</v>
+        <v>0.014125877820226373</v>
       </c>
       <c r="P10" s="0">
-        <v>-2.7877695480190221</v>
+        <v>-2.0525632057253196</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.0053845870263442884</v>
+        <v>0.040314951922070422</v>
       </c>
       <c r="R10" s="0">
-        <v>-0.51093877285830291</v>
+        <v>1.0391623787979889</v>
       </c>
       <c r="S10" s="0">
-        <v>0.60986557302744204</v>
+        <v>0.29977935904561492</v>
       </c>
       <c r="T10" s="0">
-        <v>13.376056113175821</v>
+        <v>11.972574705968315</v>
       </c>
       <c r="U10" s="0">
-        <v>5.7335491400179465e-37</v>
+        <v>1.6884927610389055e-30</v>
       </c>
       <c r="V10" s="0">
-        <v>-3.1832294423374754</v>
+        <v>-2.7372474444681503</v>
       </c>
       <c r="W10" s="0">
-        <v>0.0016343498754645815</v>
+        <v>0.0066247818009909538</v>
       </c>
       <c r="X10" s="0">
-        <v>-3.0575260324863569</v>
+        <v>-2.5269140046620109</v>
       </c>
       <c r="Y10" s="0">
-        <v>0.002277318438770764</v>
+        <v>0.011624876454326841</v>
       </c>
     </row>
     <row r="11">
@@ -12203,43 +12203,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.22866416531559375</v>
+        <v>0.29052805390274294</v>
       </c>
       <c r="C9" s="0">
-        <v>0.40796737299090713</v>
+        <v>0.28296559115216302</v>
       </c>
       <c r="D9" s="0">
-        <v>0.76877275701025938</v>
+        <v>0.056072742727645772</v>
       </c>
       <c r="E9" s="0">
-        <v>0.56796863573051892</v>
+        <v>0.10593191663440615</v>
       </c>
       <c r="F9" s="0">
-        <v>0.49956138640489689</v>
+        <v>0.083586283428858515</v>
       </c>
       <c r="G9" s="0">
-        <v>0.82522315112300837</v>
+        <v>0.2369439618949728</v>
       </c>
       <c r="H9" s="0">
-        <v>0.83900885754262489</v>
+        <v>0.25141432612707459</v>
       </c>
       <c r="I9" s="0">
-        <v>0.9782891869510415</v>
+        <v>0.23292969400846431</v>
       </c>
       <c r="J9" s="0">
-        <v>0.76999702911769563</v>
+        <v>0.24459281398995369</v>
       </c>
       <c r="K9" s="0">
-        <v>0.79938004320783596</v>
+        <v>0.10258352487887479</v>
       </c>
       <c r="L9" s="0">
-        <v>0.79606429080203411</v>
+        <v>0.1726370817440247</v>
       </c>
       <c r="M9" s="0">
-        <v>0.48293437129483008</v>
+        <v>0.43600508113855962</v>
       </c>
       <c r="N9" s="0">
-        <v>0.3139379966478113</v>
+        <v>0.35630353565780348</v>
       </c>
     </row>
     <row r="10">
@@ -13085,43 +13085,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>1.2154368834206033</v>
+        <v>-1.0657784501901484</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.83295581495040893</v>
+        <v>1.0827872150259645</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.29523143515009553</v>
+        <v>1.9458014530312842</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.5740164534736637</v>
+        <v>1.6399030289016669</v>
       </c>
       <c r="F9" s="0">
-        <v>0.6790392170715831</v>
+        <v>1.7576652728502429</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.22173891368554036</v>
+        <v>1.1938476494092707</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.20398965276178618</v>
+        <v>1.1573902667771419</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.027320414732966709</v>
+        <v>1.2042450816223655</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.29362175582968547</v>
+        <v>1.1743834344229729</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.25520900769544663</v>
+        <v>1.6561665408195574</v>
       </c>
       <c r="L9" s="0">
-        <v>-0.25952359438921391</v>
+        <v>1.3791895463864139</v>
       </c>
       <c r="M9" s="0">
-        <v>-0.7057019736887874</v>
+        <v>-0.78387487576417192</v>
       </c>
       <c r="N9" s="0">
-        <v>1.0149782868957213</v>
+        <v>0.92914830199763854</v>
       </c>
     </row>
     <row r="10">
@@ -13967,43 +13967,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.97762521091197008</v>
+        <v>1.120974555707843</v>
       </c>
       <c r="C9" s="0">
-        <v>1.1263680905951829</v>
+        <v>0.9454636479519144</v>
       </c>
       <c r="D9" s="0">
-        <v>1.0412010199844008</v>
+        <v>0.83415159469232114</v>
       </c>
       <c r="E9" s="0">
-        <v>1.0818503016548475</v>
+        <v>0.79853791882050229</v>
       </c>
       <c r="F9" s="0">
-        <v>0.94223529873159295</v>
+        <v>0.72575803788851623</v>
       </c>
       <c r="G9" s="0">
-        <v>1.0415893937337812</v>
+        <v>0.87793259918547562</v>
       </c>
       <c r="H9" s="0">
-        <v>1.0372570304384487</v>
+        <v>0.88190856827625019</v>
       </c>
       <c r="I9" s="0">
-        <v>1.0090335949127185</v>
+        <v>0.74246428003175613</v>
       </c>
       <c r="J9" s="0">
-        <v>1.0845041945874743</v>
+        <v>0.82044412473904715</v>
       </c>
       <c r="K9" s="0">
-        <v>1.059343119019279</v>
+        <v>0.78367383647991684</v>
       </c>
       <c r="L9" s="0">
-        <v>1.0729453515667673</v>
+        <v>0.80576514892347306</v>
       </c>
       <c r="M9" s="0">
-        <v>1.2455383241847227</v>
+        <v>1.2415854151853645</v>
       </c>
       <c r="N9" s="0">
-        <v>0.49407556671366959</v>
+        <v>0.60453250737857822</v>
       </c>
     </row>
     <row r="10">
@@ -14875,43 +14875,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.37015650879709283</v>
+        <v>0.046481352228375343</v>
       </c>
       <c r="C9" s="0">
-        <v>0.33951063507335399</v>
+        <v>0.37838174091288379</v>
       </c>
       <c r="D9" s="0">
-        <v>0.1969931844651851</v>
+        <v>0.15049904213986076</v>
       </c>
       <c r="E9" s="0">
-        <v>0.60664336450785983</v>
+        <v>0.62097765640601943</v>
       </c>
       <c r="F9" s="0">
-        <v>0.35268498826849248</v>
+        <v>0.33588295821488368</v>
       </c>
       <c r="G9" s="0">
-        <v>0.21419301734103868</v>
+        <v>0.3454676030273327</v>
       </c>
       <c r="H9" s="0">
-        <v>0.23353297309184151</v>
+        <v>0.30437910654086164</v>
       </c>
       <c r="I9" s="0">
-        <v>0.50825521413869945</v>
+        <v>0.74573593310760455</v>
       </c>
       <c r="J9" s="0">
-        <v>0.76852278696273224</v>
+        <v>0.96970936693097842</v>
       </c>
       <c r="K9" s="0">
-        <v>0.44353298068265512</v>
+        <v>0.63371241251315635</v>
       </c>
       <c r="L9" s="0">
-        <v>0.26901725385431852</v>
+        <v>0.65613485937524385</v>
       </c>
       <c r="M9" s="0">
-        <v>0.75877767787055805</v>
+        <v>0.97463993707440022</v>
       </c>
       <c r="N9" s="0">
-        <v>0.80405738732460619</v>
+        <v>0.45095642379944478</v>
       </c>
     </row>
     <row r="10">
@@ -15757,43 +15757,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.90417018096591162</v>
+        <v>-2.0406213843815748</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.96416952458847516</v>
+        <v>-0.88861575073037358</v>
       </c>
       <c r="D9" s="0">
-        <v>-1.3072436457960661</v>
+        <v>-1.4597225829198206</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.51807921577329941</v>
+        <v>-0.49749588460945959</v>
       </c>
       <c r="F9" s="0">
-        <v>0.93796175358271239</v>
+        <v>0.97150329771044019</v>
       </c>
       <c r="G9" s="0">
-        <v>-1.2577995951934475</v>
+        <v>-0.9522381651182269</v>
       </c>
       <c r="H9" s="0">
-        <v>-1.2056068809762523</v>
+        <v>-1.0375389890961941</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.66624814283068523</v>
+        <v>-0.32602971007731113</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.29588048486587482</v>
+        <v>-0.038159660504753286</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.77224561922006707</v>
+        <v>-0.47938738667003883</v>
       </c>
       <c r="L9" s="0">
-        <v>-1.1175003195234361</v>
+        <v>-0.4478824636149466</v>
       </c>
       <c r="M9" s="0">
-        <v>-0.30873910950964067</v>
+        <v>-0.031945841690118715</v>
       </c>
       <c r="N9" s="0">
-        <v>0.24939448951066151</v>
+        <v>0.75965786902996157</v>
       </c>
     </row>
     <row r="10">
@@ -16639,43 +16639,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>1.0192982253822058</v>
+        <v>1.237064163152386</v>
       </c>
       <c r="C9" s="0">
-        <v>1.0408356541250483</v>
+        <v>1.0648355271715351</v>
       </c>
       <c r="D9" s="0">
-        <v>1.0445665963092523</v>
+        <v>1.0722548114556014</v>
       </c>
       <c r="E9" s="0">
-        <v>0.96082737532206119</v>
+        <v>0.97096235848814894</v>
       </c>
       <c r="F9" s="0">
-        <v>0.89423458870746197</v>
+        <v>0.89990606034335219</v>
       </c>
       <c r="G9" s="0">
-        <v>1.0566177685487097</v>
+        <v>1.0355633201588179</v>
       </c>
       <c r="H9" s="0">
-        <v>1.0549692988323851</v>
+        <v>1.0475013865166969</v>
       </c>
       <c r="I9" s="0">
-        <v>1.0069296525457911</v>
+        <v>0.99768785678873451</v>
       </c>
       <c r="J9" s="0">
-        <v>1.0241312377846101</v>
+        <v>1.0244709529993945</v>
       </c>
       <c r="K9" s="0">
-        <v>1.0295902682523446</v>
+        <v>1.0404238167749971</v>
       </c>
       <c r="L9" s="0">
-        <v>1.0194683319921205</v>
+        <v>1.0233706544763879</v>
       </c>
       <c r="M9" s="0">
-        <v>1.0023899746684122</v>
+        <v>1.0047593551071345</v>
       </c>
       <c r="N9" s="0">
-        <v>0.94064528189543772</v>
+        <v>0.94382905378086668</v>
       </c>
     </row>
     <row r="10">
@@ -17547,43 +17547,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.48683699343022468</v>
+        <v>0.28347717225264546</v>
       </c>
       <c r="C9" s="0">
-        <v>0.34865956048064162</v>
+        <v>0.52048040694046926</v>
       </c>
       <c r="D9" s="0">
-        <v>0.57721444567248081</v>
+        <v>0.083412935306171221</v>
       </c>
       <c r="E9" s="0">
-        <v>0.44850644402230433</v>
+        <v>0.095697836297375161</v>
       </c>
       <c r="F9" s="0">
-        <v>0.82661733793234571</v>
+        <v>0.083703889816958463</v>
       </c>
       <c r="G9" s="0">
-        <v>0.71633910353985009</v>
+        <v>0.29077226678840951</v>
       </c>
       <c r="H9" s="0">
-        <v>0.72751811242919606</v>
+        <v>0.30886743059808741</v>
       </c>
       <c r="I9" s="0">
-        <v>0.92353839530453685</v>
+        <v>0.25555695733900141</v>
       </c>
       <c r="J9" s="0">
-        <v>0.71193805136408761</v>
+        <v>0.30383616115883982</v>
       </c>
       <c r="K9" s="0">
-        <v>0.71557353055837136</v>
+        <v>0.14062138640938582</v>
       </c>
       <c r="L9" s="0">
-        <v>0.72514800400864576</v>
+        <v>0.3149516667428075</v>
       </c>
       <c r="M9" s="0">
-        <v>0.46160853994157791</v>
+        <v>0.42530946524493685</v>
       </c>
       <c r="N9" s="0">
-        <v>0.3356313799887376</v>
+        <v>0.37957057912410919</v>
       </c>
     </row>
     <row r="10">
@@ -18429,43 +18429,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.69939894659406554</v>
+        <v>-1.081626765058137</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.94411885895021186</v>
+        <v>0.64616884284464016</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.56032436367778149</v>
+        <v>1.7586755702627799</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.7625952483693087</v>
+        <v>1.6910198527740363</v>
       </c>
       <c r="F9" s="0">
-        <v>0.21994075068583901</v>
+        <v>1.7569808345325155</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.36496732811542659</v>
+        <v>1.065234310803117</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.34995957187684279</v>
+        <v>1.0257573358530838</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.096356679403323889</v>
+        <v>1.1472307496801211</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.37089845769311691</v>
+        <v>1.0365718613421353</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.36599812115627944</v>
+        <v>1.4919652529022949</v>
       </c>
       <c r="L9" s="0">
-        <v>-0.35313464669114975</v>
+        <v>1.0128375232686093</v>
       </c>
       <c r="M9" s="0">
-        <v>-0.74065978216128292</v>
+        <v>-0.80236824099589943</v>
       </c>
       <c r="N9" s="0">
-        <v>0.97013503976015902</v>
+        <v>0.8848113403613741</v>
       </c>
     </row>
     <row r="10">
@@ -19311,43 +19311,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.99915651378072334</v>
+        <v>1.3120684026398306</v>
       </c>
       <c r="C9" s="0">
-        <v>1.0795099730068141</v>
+        <v>1.0292189999552981</v>
       </c>
       <c r="D9" s="0">
-        <v>0.944074070659503</v>
+        <v>0.88698291701560983</v>
       </c>
       <c r="E9" s="0">
-        <v>0.99016429889310076</v>
+        <v>0.89188013068230443</v>
       </c>
       <c r="F9" s="0">
-        <v>0.83296315012292199</v>
+        <v>0.78604661845056378</v>
       </c>
       <c r="G9" s="0">
-        <v>0.94498059902654885</v>
+        <v>0.89040160431965865</v>
       </c>
       <c r="H9" s="0">
-        <v>0.94247151861394296</v>
+        <v>0.89914321074399828</v>
       </c>
       <c r="I9" s="0">
-        <v>0.96714249568208777</v>
+        <v>0.85542042154479958</v>
       </c>
       <c r="J9" s="0">
-        <v>1.0028218680869128</v>
+        <v>0.90399570709510957</v>
       </c>
       <c r="K9" s="0">
-        <v>0.95571849935892117</v>
+        <v>0.84210919265008144</v>
       </c>
       <c r="L9" s="0">
-        <v>0.9420824618930741</v>
+        <v>0.88994580962708036</v>
       </c>
       <c r="M9" s="0">
-        <v>1.2136887657441686</v>
+        <v>1.3834864533445592</v>
       </c>
       <c r="N9" s="0">
-        <v>0.72057454577671187</v>
+        <v>0.80007744323260332</v>
       </c>
     </row>
     <row r="10">
@@ -20819,76 +20819,76 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>1.09753780452825</v>
+        <v>0.93086382587265004</v>
       </c>
       <c r="C10" s="0">
-        <v>0.90276210374417964</v>
+        <v>0.96605112015878791</v>
       </c>
       <c r="D10" s="0">
-        <v>0.80612316535959672</v>
+        <v>0.71710825700891523</v>
       </c>
       <c r="E10" s="0">
-        <v>0.81259191550577403</v>
+        <v>0.7267245638801445</v>
       </c>
       <c r="F10" s="0">
-        <v>0.99438169962125134</v>
+        <v>0.9483826720342261</v>
       </c>
       <c r="G10" s="0">
-        <v>0.95138704297590249</v>
+        <v>1.0212349877517173</v>
       </c>
       <c r="H10" s="0">
-        <v>0.81844878619144024</v>
+        <v>0.82126161999200153</v>
       </c>
       <c r="I10" s="0">
-        <v>0.85849761286409787</v>
+        <v>0.86748711920880028</v>
       </c>
       <c r="J10" s="0">
-        <v>-3.4477076625019301</v>
+        <v>1.7178843727352113</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00066794154105092424</v>
+        <v>0.087112895370553445</v>
       </c>
       <c r="L10" s="0">
-        <v>2.4611860926186155</v>
+        <v>0.92837238315631843</v>
       </c>
       <c r="M10" s="0">
-        <v>0.014058216455265294</v>
+        <v>0.35349480366117325</v>
       </c>
       <c r="N10" s="0">
-        <v>1.6516882591561224</v>
+        <v>3.5897681692704304</v>
       </c>
       <c r="O10" s="0">
-        <v>0.099809969685414002</v>
+        <v>0.00039579278211927251</v>
       </c>
       <c r="P10" s="0">
-        <v>1.6462194508028074</v>
+        <v>3.5475151514433447</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.099960482030850062</v>
+        <v>0.00040273162928705549</v>
       </c>
       <c r="R10" s="0">
-        <v>-2.6679369227206453</v>
+        <v>0.53921788387817227</v>
       </c>
       <c r="S10" s="0">
-        <v>0.0081540166871201143</v>
+        <v>0.59023847244123262</v>
       </c>
       <c r="T10" s="0">
-        <v>1.3786388110983745</v>
+        <v>-1.2313841820812232</v>
       </c>
       <c r="U10" s="0">
-        <v>0.168391999079188</v>
+        <v>0.21854152209154587</v>
       </c>
       <c r="V10" s="0">
-        <v>1.2848973199525553</v>
+        <v>3.2294878937358673</v>
       </c>
       <c r="W10" s="0">
-        <v>0.19997607346950397</v>
+        <v>0.001400288007710964</v>
       </c>
       <c r="X10" s="0">
-        <v>1.2802874719807531</v>
+        <v>3.1861806208685075</v>
       </c>
       <c r="Y10" s="0">
-        <v>0.20067262127425878</v>
+        <v>0.0014759543259495929</v>
       </c>
     </row>
     <row r="11">
@@ -24488,43 +24488,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.024891931940569642</v>
+        <v>0.032351137981050847</v>
       </c>
       <c r="C9" s="0">
-        <v>0.082930503055482274</v>
+        <v>0.027272180898691788</v>
       </c>
       <c r="D9" s="0">
-        <v>0.05645251062520909</v>
+        <v>0.020159742120688696</v>
       </c>
       <c r="E9" s="0">
-        <v>0.16063274233524205</v>
+        <v>0.086904407087831453</v>
       </c>
       <c r="F9" s="0">
-        <v>0.069017963815048974</v>
+        <v>0.030227753851378786</v>
       </c>
       <c r="G9" s="0">
-        <v>0.067820569819451976</v>
+        <v>0.01307438757091723</v>
       </c>
       <c r="H9" s="0">
-        <v>0.059743934928330696</v>
+        <v>0.019593475234296942</v>
       </c>
       <c r="I9" s="0">
-        <v>0.011152167579799763</v>
+        <v>0.0021764242478192822</v>
       </c>
       <c r="J9" s="0">
-        <v>0.0061449595624168286</v>
+        <v>0.0011289088412037714</v>
       </c>
       <c r="K9" s="0">
-        <v>0.040773566183774042</v>
+        <v>0.015945020681461364</v>
       </c>
       <c r="L9" s="0">
-        <v>0.022298516773309622</v>
+        <v>0.0033463682415989242</v>
       </c>
       <c r="M9" s="0">
-        <v>0.020772796521385486</v>
+        <v>0.00082039279576174781</v>
       </c>
       <c r="N9" s="0">
-        <v>0.02026360822988247</v>
+        <v>0.0004082938669826737</v>
       </c>
     </row>
     <row r="10">
@@ -25396,43 +25396,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>2.3113225905164665</v>
+        <v>2.2001637474399938</v>
       </c>
       <c r="C9" s="0">
-        <v>1.7686626625937329</v>
+        <v>2.2729642455639061</v>
       </c>
       <c r="D9" s="0">
-        <v>1.9518904418066763</v>
+        <v>2.3984668532066191</v>
       </c>
       <c r="E9" s="0">
-        <v>1.4236657691876917</v>
+        <v>1.7455909049591183</v>
       </c>
       <c r="F9" s="0">
-        <v>1.8575025362972166</v>
+        <v>2.2292744315246185</v>
       </c>
       <c r="G9" s="0">
-        <v>1.8658359298019516</v>
+        <v>2.5717980995627818</v>
       </c>
       <c r="H9" s="0">
-        <v>1.925558237440073</v>
+        <v>2.4100965597040993</v>
       </c>
       <c r="I9" s="0">
-        <v>2.6337357716280874</v>
+        <v>3.2287762281943468</v>
       </c>
       <c r="J9" s="0">
-        <v>2.8587846277048854</v>
+        <v>3.4514389200798514</v>
       </c>
       <c r="K9" s="0">
-        <v>2.099143002540778</v>
+        <v>2.4932339171739519</v>
       </c>
       <c r="L9" s="0">
-        <v>2.357034561513498</v>
+        <v>3.0783885657160672</v>
       </c>
       <c r="M9" s="0">
-        <v>2.3862025231607933</v>
+        <v>3.5571187863017415</v>
       </c>
       <c r="N9" s="0">
-        <v>2.3963656234458917</v>
+        <v>3.7830364163163992</v>
       </c>
     </row>
     <row r="10">
@@ -26304,43 +26304,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.89840734080664686</v>
+        <v>0.96761593429103887</v>
       </c>
       <c r="C9" s="0">
-        <v>1.0149751941360041</v>
+        <v>0.9875957081670983</v>
       </c>
       <c r="D9" s="0">
-        <v>0.98971913459429661</v>
+        <v>0.9650488854185304</v>
       </c>
       <c r="E9" s="0">
-        <v>1.1320757113261306</v>
+        <v>1.0993502813486566</v>
       </c>
       <c r="F9" s="0">
-        <v>1.0351782066830291</v>
+        <v>1.0006703422257335</v>
       </c>
       <c r="G9" s="0">
-        <v>1.0372400469641383</v>
+        <v>0.95978189564777794</v>
       </c>
       <c r="H9" s="0">
-        <v>1.0404340964145133</v>
+        <v>0.97527010641564216</v>
       </c>
       <c r="I9" s="0">
-        <v>0.96593092730807417</v>
+        <v>0.90230410402756178</v>
       </c>
       <c r="J9" s="0">
-        <v>0.90809024112744174</v>
+        <v>0.86137131854622184</v>
       </c>
       <c r="K9" s="0">
-        <v>0.97007485594345444</v>
+        <v>0.93032742535136215</v>
       </c>
       <c r="L9" s="0">
-        <v>0.96916222061720059</v>
+        <v>0.89128373882118883</v>
       </c>
       <c r="M9" s="0">
-        <v>0.91158177105471128</v>
+        <v>0.8480742317386919</v>
       </c>
       <c r="N9" s="0">
-        <v>0.95119040857813186</v>
+        <v>0.83728173845448894</v>
       </c>
     </row>
     <row r="10">
@@ -27212,43 +27212,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>0.63201740547376595</v>
+        <v>0.19916820080099629</v>
       </c>
       <c r="C9" s="0">
-        <v>0.32728929464150258</v>
+        <v>0.39149206186878527</v>
       </c>
       <c r="D9" s="0">
-        <v>0.34188773938444694</v>
+        <v>0.49734807126119129</v>
       </c>
       <c r="E9" s="0">
-        <v>0.28399967932295678</v>
+        <v>0.31124465178335303</v>
       </c>
       <c r="F9" s="0">
-        <v>0.29273998175933735</v>
+        <v>0.32157153051612841</v>
       </c>
       <c r="G9" s="0">
-        <v>0.36354354939510591</v>
+        <v>0.66019372863579451</v>
       </c>
       <c r="H9" s="0">
-        <v>0.38048484710660713</v>
+        <v>0.70187990375661913</v>
       </c>
       <c r="I9" s="0">
-        <v>0.36503311148138917</v>
+        <v>0.7291743054252916</v>
       </c>
       <c r="J9" s="0">
-        <v>0.38929551140009422</v>
+        <v>0.65688223186125261</v>
       </c>
       <c r="K9" s="0">
-        <v>0.37498874463898002</v>
+        <v>0.6519292609332874</v>
       </c>
       <c r="L9" s="0">
-        <v>0.41478006172462867</v>
+        <v>0.77402641985433773</v>
       </c>
       <c r="M9" s="0">
-        <v>0.42077947595607168</v>
+        <v>0.36896703761337024</v>
       </c>
       <c r="N9" s="0">
-        <v>0.31645661642446832</v>
+        <v>0.24149572247680884</v>
       </c>
     </row>
     <row r="10">
@@ -28120,43 +28120,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.48119733260527858</v>
+        <v>-1.2973491981328389</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.98714429815295102</v>
+        <v>-0.86275800171111616</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.95756062531674058</v>
+        <v>-0.68256007992165346</v>
       </c>
       <c r="E9" s="0">
-        <v>-1.0804430287889879</v>
+        <v>-1.0206890633527694</v>
       </c>
       <c r="F9" s="0">
-        <v>-1.0608614093994204</v>
+        <v>-0.99896960125812428</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.91515883127850739</v>
+        <v>-0.44170199577292774</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.8831048161402385</v>
+        <v>-0.38450363009037164</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.91230285783825849</v>
+        <v>-0.3477430042048591</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.86678952159511669</v>
+        <v>-0.44630659037222531</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.89340281226926233</v>
+        <v>-0.45321159584248638</v>
       </c>
       <c r="L9" s="0">
-        <v>-0.82084777646902851</v>
+        <v>-0.28832931189444627</v>
       </c>
       <c r="M9" s="0">
-        <v>-0.81028445144526884</v>
+        <v>-0.90479586182966409</v>
       </c>
       <c r="N9" s="0">
-        <v>-1.009667759924584</v>
+        <v>-1.1822110679024207</v>
       </c>
     </row>
     <row r="10">
